--- a/Original/CN/Game/Job.xlsx
+++ b/Original/CN/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Original/CN/Game/Job.xlsx
+++ b/Original/CN/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Original/CN/Game/Job.xlsx
+++ b/Original/CN/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Original/CN/Game/Job.xlsx
+++ b/Original/CN/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>

--- a/Original/CN/Game/Job.xlsx
+++ b/Original/CN/Game/Job.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">warrior</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">戦士</t>
